--- a/excelR&W/Sample.xlsx
+++ b/excelR&W/Sample.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="21465" windowHeight="5280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="NextSheetTest" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:S14"/>
 </workbook>
 </file>
 
@@ -391,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -438,20 +438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
